--- a/biology/Microbiologie/Pantoea/Pantoea.xlsx
+++ b/biology/Microbiologie/Pantoea/Pantoea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pantoea est un genre de bacilles Gram négatifs de la famille des Erwiniaceae. Son nom tiré du grec pantoïos (παντοῖος : de toute sorte) se rapporte à la diversité des sources géographiques et des niches écologiques dans lesquelles les bactéries de ce genre ont été isolées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pantoea est un genre de bacilles Gram négatifs de la famille des Erwiniaceae. Son nom tiré du grec pantoïos (παντοῖος : de toute sorte) se rapporte à la diversité des sources géographiques et des niches écologiques dans lesquelles les bactéries de ce genre ont été isolées.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pantoea est créé en 1989 par reclassement de l'espèce Enterobacter agglomerans[1].
-Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Erwiniaceae nouvellement créée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pantoea est créé en 1989 par reclassement de l'espèce Enterobacter agglomerans.
+Jusqu'en 2016 ce genre était compté parmi les Enterobacteriaceae auquel il était rattaché sur la base de critères phénotypiques. Depuis la refonte de l'ordre des Enterobacterales en 2016 par Adeolu et al. à l'aide des techniques de phylogénétique moléculaire, il a été déplacé vers la famille des Erwiniaceae nouvellement créée.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (25 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (25 octobre 2022) :
 Pantoea agglomerans (Beijerinck 1888) Gavini et al. 1989 – espèce type
 Pantoea allii Brady et al. 2011
 Pantoea ananatis corrig. (Serrano 1928) Mergaert et al. 1993
